--- a/Haidir Magribi/peta buat skripsi/2172_Kota Tj Pinang by desa/poly2172.xlsx
+++ b/Haidir Magribi/peta buat skripsi/2172_Kota Tj Pinang by desa/poly2172.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\kuliah\Semester 8\Skripsi\Haidir Magribi\peta buat skripsi\2172_Kota Tj Pinang\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\kuliah\Semester 8\Skripsi\Tulisan\Haidir Magribi\peta buat skripsi\2172_Kota Tj Pinang by desa\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -17,12 +17,12 @@
   <definedNames>
     <definedName name="_xlnm.Database">poly2172!$A$1:$A$19</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="24">
   <si>
     <t>2172010001</t>
   </si>
@@ -79,6 +79,21 @@
   </si>
   <si>
     <t>ID</t>
+  </si>
+  <si>
+    <t>ID_KEC</t>
+  </si>
+  <si>
+    <t>2172010000</t>
+  </si>
+  <si>
+    <t>2172020000</t>
+  </si>
+  <si>
+    <t>2172030000</t>
+  </si>
+  <si>
+    <t>2172040000</t>
   </si>
 </sst>
 </file>
@@ -886,110 +901,167 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A19"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="A1:F1048576"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="11" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
